--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_185.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_185.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,128 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4821428571428572</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['A', 'D', 'G'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:57.401473', '0:01:04.808639'), ('0:00:07.525011', '0:00:12.935260')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:42.174263', '0:01:51.798209'), ('0:01:45.425056', '0:01:55.003287')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>schubert-winterreise_112</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -618,178 +618,186 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:43', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09235074626865672</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'G/5', 'C', 'E:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'E', 'A', 'C#:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.122845, 12.503707)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(46.529251, 54.971273)]</t>
+          <t>[('0:00:01.640000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:51.280000', '0:01:02.780000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -798,407 +806,370 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1402173913043478</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[('0:00:20.080000', '0:00:22.560000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:01:06.220000', '0:01:12.300000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:14.200000', '0:00:18.800000'), ('0:00:31.740000', '0:00:33.880000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(121.08, 122.34)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[('0:01:08.640000', '0:01:23.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(44.82, 60.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.2, 30.68)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
